--- a/summeries/summary_gate_len.xlsx
+++ b/summeries/summary_gate_len.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine/Documents/GitHub/finals/quantum-logic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai.FAREAST\Documents\GitHub\quantum-logic\summeries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE4397-7AA1-D64D-9D0F-BA4EFB7C8833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086981A-9584-49B8-8307-F0DA74A2E7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1520" windowWidth="21340" windowHeight="11380" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="2250" yWindow="2775" windowWidth="26280" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
   <si>
     <t>vanillla</t>
   </si>
@@ -98,6 +98,9 @@
     <t>partial_with_controlmin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Dym_DFS</t>
+  </si>
 </sst>
 </file>
 
@@ -107,13 +110,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -122,7 +125,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -153,7 +156,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,7 +172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,13 +468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:AD180"/>
+  <dimension ref="A1:AE180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="X94" sqref="X94"/>
+    <sheetView tabSelected="1" topLeftCell="I108" workbookViewId="0">
+      <selection activeCell="V122" sqref="V122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2288,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:31">
       <c r="B65">
         <v>1</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:31">
       <c r="B66">
         <v>2</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:31">
       <c r="B67">
         <v>3</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:31">
       <c r="B68">
         <v>4</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:31">
       <c r="B69">
         <v>5</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>29725</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:31">
       <c r="B70">
         <v>6</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>61014</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:31">
       <c r="B71">
         <v>7</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>78442</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:31">
       <c r="B72">
         <v>8</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>55552</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:31">
       <c r="B73">
         <v>9</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>20808</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:31">
       <c r="B74">
         <v>10</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:31">
       <c r="B75">
         <v>11</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:31">
       <c r="B76">
         <v>12</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:31">
       <c r="C77">
         <f>H77/SUM(C64:C76)</f>
         <v>6.5267857142857144</v>
@@ -2550,7 +2553,7 @@
         <v>263160</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2590,6 +2593,9 @@
       <c r="U80" t="s">
         <v>4</v>
       </c>
+      <c r="V80" t="s">
+        <v>20</v>
+      </c>
       <c r="Z80" t="s">
         <v>10</v>
       </c>
@@ -2605,8 +2611,11 @@
       <c r="AD80" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="2:30">
+      <c r="AE80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:31">
       <c r="B81">
         <v>0</v>
       </c>
@@ -2651,6 +2660,9 @@
       <c r="U81">
         <v>256</v>
       </c>
+      <c r="V81">
+        <v>256</v>
+      </c>
       <c r="AA81">
         <v>0</v>
       </c>
@@ -2663,8 +2675,11 @@
       <c r="AD81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:30">
+      <c r="AE81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:31">
       <c r="B82">
         <v>1</v>
       </c>
@@ -2709,6 +2724,9 @@
       <c r="U82">
         <v>2304</v>
       </c>
+      <c r="V82">
+        <v>2304</v>
+      </c>
       <c r="AA82">
         <v>1</v>
       </c>
@@ -2721,8 +2739,11 @@
       <c r="AD82">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="83" spans="2:30">
+      <c r="AE82">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:31">
       <c r="B83">
         <v>2</v>
       </c>
@@ -2765,7 +2786,10 @@
         <v>12312</v>
       </c>
       <c r="U83">
-        <v>12432</v>
+        <v>12916</v>
+      </c>
+      <c r="V83">
+        <v>13380</v>
       </c>
       <c r="AA83">
         <v>2</v>
@@ -2777,10 +2801,13 @@
         <v>2.7876275510204001</v>
       </c>
       <c r="AD83">
-        <v>2.7595663265306101</v>
-      </c>
-    </row>
-    <row r="84" spans="2:30">
+        <v>2.7072704081632599</v>
+      </c>
+      <c r="AE83">
+        <v>2.71556122448979</v>
+      </c>
+    </row>
+    <row r="84" spans="2:31">
       <c r="B84">
         <v>3</v>
       </c>
@@ -2823,7 +2850,10 @@
         <v>43945</v>
       </c>
       <c r="U84">
-        <v>46379</v>
+        <v>49364</v>
+      </c>
+      <c r="V84">
+        <v>51336</v>
       </c>
       <c r="AA84">
         <v>3</v>
@@ -2835,10 +2865,13 @@
         <v>4.03613945578231</v>
       </c>
       <c r="AD84">
-        <v>3.9529655612244898</v>
-      </c>
-    </row>
-    <row r="85" spans="2:30">
+        <v>3.8475233843537402</v>
+      </c>
+      <c r="AE84">
+        <v>3.8667091836734602</v>
+      </c>
+    </row>
+    <row r="85" spans="2:31">
       <c r="B85">
         <v>4</v>
       </c>
@@ -2881,7 +2914,10 @@
         <v>108439</v>
       </c>
       <c r="U85">
-        <v>120742</v>
+        <v>128220</v>
+      </c>
+      <c r="V85">
+        <v>130817</v>
       </c>
       <c r="AA85">
         <v>4</v>
@@ -2893,10 +2929,13 @@
         <v>5.2184608843537399</v>
       </c>
       <c r="AD85">
-        <v>5.0497363945578204</v>
-      </c>
-    </row>
-    <row r="86" spans="2:30">
+        <v>4.90992346938775</v>
+      </c>
+      <c r="AE85">
+        <v>4.9406972789115597</v>
+      </c>
+    </row>
+    <row r="86" spans="2:31">
       <c r="B86">
         <v>5</v>
       </c>
@@ -2939,7 +2978,10 @@
         <v>198279</v>
       </c>
       <c r="U86">
-        <v>228482</v>
+        <v>238286</v>
+      </c>
+      <c r="V86">
+        <v>236113</v>
       </c>
       <c r="AA86">
         <v>5</v>
@@ -2951,10 +2993,13 @@
         <v>6.2691060799319702</v>
       </c>
       <c r="AD86">
-        <v>6.0034199617346902</v>
-      </c>
-    </row>
-    <row r="87" spans="2:30">
+        <v>5.8616177721088398</v>
+      </c>
+      <c r="AE86">
+        <v>5.9011426445578197</v>
+      </c>
+    </row>
+    <row r="87" spans="2:31">
       <c r="B87">
         <v>6</v>
       </c>
@@ -2997,7 +3042,10 @@
         <v>273868</v>
       </c>
       <c r="U87">
-        <v>313562</v>
+        <v>323319</v>
+      </c>
+      <c r="V87">
+        <v>309570</v>
       </c>
       <c r="AA87">
         <v>6</v>
@@ -3009,10 +3057,13 @@
         <v>7.0898224914965899</v>
       </c>
       <c r="AD87">
-        <v>6.7574475623582702</v>
-      </c>
-    </row>
-    <row r="88" spans="2:30">
+        <v>6.6529868197278903</v>
+      </c>
+      <c r="AE87">
+        <v>6.6979485544217603</v>
+      </c>
+    </row>
+    <row r="88" spans="2:31">
       <c r="B88">
         <v>7</v>
       </c>
@@ -3055,7 +3106,10 @@
         <v>294574</v>
       </c>
       <c r="U88">
-        <v>314140</v>
+        <v>317201</v>
+      </c>
+      <c r="V88">
+        <v>300499</v>
       </c>
       <c r="AA88">
         <v>7</v>
@@ -3067,10 +3121,13 @@
         <v>7.5224082341269796</v>
       </c>
       <c r="AD88">
-        <v>7.2151041666666602</v>
-      </c>
-    </row>
-    <row r="89" spans="2:30">
+        <v>7.1723090277777697</v>
+      </c>
+      <c r="AE88">
+        <v>7.2470269097222202</v>
+      </c>
+    </row>
+    <row r="89" spans="2:31">
       <c r="B89">
         <v>8</v>
       </c>
@@ -3113,7 +3170,10 @@
         <v>243244</v>
       </c>
       <c r="U89">
-        <v>225763</v>
+        <v>217788</v>
+      </c>
+      <c r="V89">
+        <v>218996</v>
       </c>
       <c r="AA89">
         <v>8</v>
@@ -3125,10 +3185,13 @@
         <v>7.2046875000000004</v>
       </c>
       <c r="AD89">
-        <v>6.9761904761904701</v>
-      </c>
-    </row>
-    <row r="90" spans="2:30">
+        <v>6.9739583333333304</v>
+      </c>
+      <c r="AE89">
+        <v>7.0573412698412596</v>
+      </c>
+    </row>
+    <row r="90" spans="2:31">
       <c r="B90">
         <v>9</v>
       </c>
@@ -3159,10 +3222,13 @@
         <v>153749</v>
       </c>
       <c r="U90">
-        <v>117698</v>
-      </c>
-    </row>
-    <row r="91" spans="2:30">
+        <v>105573</v>
+      </c>
+      <c r="V90">
+        <v>119064</v>
+      </c>
+    </row>
+    <row r="91" spans="2:31">
       <c r="B91">
         <v>10</v>
       </c>
@@ -3193,10 +3259,13 @@
         <v>75063</v>
       </c>
       <c r="U91">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="92" spans="2:30">
+        <v>36224</v>
+      </c>
+      <c r="V91">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="92" spans="2:31">
       <c r="B92">
         <v>11</v>
       </c>
@@ -3227,10 +3296,13 @@
         <v>27162</v>
       </c>
       <c r="U92">
-        <v>12291</v>
-      </c>
-    </row>
-    <row r="93" spans="2:30">
+        <v>8820</v>
+      </c>
+      <c r="V92">
+        <v>12011</v>
+      </c>
+    </row>
+    <row r="93" spans="2:31">
       <c r="B93">
         <v>12</v>
       </c>
@@ -3261,10 +3333,13 @@
         <v>7117</v>
       </c>
       <c r="U93">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="94" spans="2:30">
+        <v>1379</v>
+      </c>
+      <c r="V93">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="94" spans="2:31">
       <c r="B94">
         <v>13</v>
       </c>
@@ -3295,10 +3370,13 @@
         <v>1229</v>
       </c>
       <c r="U94">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="2:30">
+        <v>79</v>
+      </c>
+      <c r="V94">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="2:31">
       <c r="B95">
         <v>14</v>
       </c>
@@ -3328,11 +3406,11 @@
       <c r="T95">
         <v>170</v>
       </c>
-      <c r="U95">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="2:30">
+      <c r="V95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:31">
       <c r="B96">
         <v>15</v>
       </c>
@@ -3363,7 +3441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:31">
       <c r="B97">
         <v>16</v>
       </c>
@@ -3388,7 +3466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:31">
       <c r="B98">
         <v>17</v>
       </c>
@@ -3410,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:31">
       <c r="C99">
         <f>H100/SUM(C81:C98)</f>
         <v>7.0393229240724162</v>
@@ -3429,10 +3507,13 @@
         <v>6.7781642735909404</v>
       </c>
       <c r="U99">
-        <v>6.4886577158397998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30">
+        <v>6.3882706111897498</v>
+      </c>
+      <c r="V99">
+        <v>6.4380095010920897</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31">
       <c r="H100">
         <f>SUM(H81:H98)</f>
         <v>10148796</v>
@@ -3442,7 +3523,7 @@
         <v>10233712</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:31">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -3494,6 +3575,9 @@
       <c r="U103" t="s">
         <v>4</v>
       </c>
+      <c r="V103" t="s">
+        <v>20</v>
+      </c>
       <c r="Z103" t="s">
         <v>10</v>
       </c>
@@ -3509,8 +3593,11 @@
       <c r="AD103" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:30">
+      <c r="AE103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31">
       <c r="B104">
         <v>0</v>
       </c>
@@ -3563,6 +3650,9 @@
       <c r="U104">
         <v>256</v>
       </c>
+      <c r="V104">
+        <v>256</v>
+      </c>
       <c r="AA104">
         <v>0</v>
       </c>
@@ -3575,8 +3665,11 @@
       <c r="AD104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:30">
+      <c r="AE104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
       <c r="B105">
         <v>1</v>
       </c>
@@ -3629,6 +3722,9 @@
       <c r="U105">
         <v>2304</v>
       </c>
+      <c r="V105">
+        <v>2304</v>
+      </c>
       <c r="AA105">
         <v>1</v>
       </c>
@@ -3641,8 +3737,11 @@
       <c r="AD105">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:30">
+      <c r="AE105">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31">
       <c r="B106">
         <v>2</v>
       </c>
@@ -3693,7 +3792,10 @@
         <v>11568</v>
       </c>
       <c r="U106">
-        <v>11904</v>
+        <v>12388</v>
+      </c>
+      <c r="V106">
+        <v>12276</v>
       </c>
       <c r="AA106">
         <v>2</v>
@@ -3705,10 +3807,13 @@
         <v>2.94260204081632</v>
       </c>
       <c r="AD106">
-        <v>2.8960459183673399</v>
-      </c>
-    </row>
-    <row r="107" spans="1:30">
+        <v>2.84885204081632</v>
+      </c>
+      <c r="AE106">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31">
       <c r="B107">
         <v>3</v>
       </c>
@@ -3759,7 +3864,10 @@
         <v>38768</v>
       </c>
       <c r="U107">
-        <v>41944</v>
+        <v>44815</v>
+      </c>
+      <c r="V107">
+        <v>43859</v>
       </c>
       <c r="AA107">
         <v>3</v>
@@ -3771,10 +3879,13 @@
         <v>4.3032525510203996</v>
       </c>
       <c r="AD107">
-        <v>4.1734162414965903</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30">
+        <v>4.0690369897959098</v>
+      </c>
+      <c r="AE107">
+        <v>4.1251594387755102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31">
       <c r="B108">
         <v>4</v>
       </c>
@@ -3825,7 +3936,10 @@
         <v>93604</v>
       </c>
       <c r="U108">
-        <v>106533</v>
+        <v>113522</v>
+      </c>
+      <c r="V108">
+        <v>109909</v>
       </c>
       <c r="AA108">
         <v>4</v>
@@ -3837,10 +3951,13 @@
         <v>5.5452465986394497</v>
       </c>
       <c r="AD108">
-        <v>5.3131972789115602</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30">
+        <v>5.1726955782312896</v>
+      </c>
+      <c r="AE108">
+        <v>5.2500085034013599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31">
       <c r="B109">
         <v>5</v>
       </c>
@@ -3891,7 +4008,10 @@
         <v>172466</v>
       </c>
       <c r="U109">
-        <v>202020</v>
+        <v>212207</v>
+      </c>
+      <c r="V109">
+        <v>202477</v>
       </c>
       <c r="AA109">
         <v>5</v>
@@ -3903,10 +4023,13 @@
         <v>6.6125930059523803</v>
       </c>
       <c r="AD109">
-        <v>6.28401360544217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30">
+        <v>6.1347470238095196</v>
+      </c>
+      <c r="AE109">
+        <v>6.2330729166666599</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31">
       <c r="B110">
         <v>6</v>
       </c>
@@ -3957,7 +4080,10 @@
         <v>247086</v>
       </c>
       <c r="U110">
-        <v>286874</v>
+        <v>297157</v>
+      </c>
+      <c r="V110">
+        <v>281512</v>
       </c>
       <c r="AA110">
         <v>6</v>
@@ -3969,10 +4095,13 @@
         <v>7.4108329790249403</v>
       </c>
       <c r="AD110">
-        <v>7.0210919784580499</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30">
+        <v>6.90060941043083</v>
+      </c>
+      <c r="AE110">
+        <v>7.0155346513605403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31">
       <c r="B111">
         <v>7</v>
       </c>
@@ -4023,7 +4152,10 @@
         <v>279056</v>
       </c>
       <c r="U111">
-        <v>306065</v>
+        <v>308802</v>
+      </c>
+      <c r="V111">
+        <v>298201</v>
       </c>
       <c r="AA111">
         <v>7</v>
@@ -4035,10 +4167,13 @@
         <v>7.7504960317460299</v>
       </c>
       <c r="AD111">
-        <v>7.3783544146825397</v>
-      </c>
-    </row>
-    <row r="112" spans="1:30">
+        <v>7.3461526537698401</v>
+      </c>
+      <c r="AE111">
+        <v>7.4759145585317404</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31">
       <c r="B112">
         <v>8</v>
       </c>
@@ -4089,7 +4224,10 @@
         <v>248978</v>
       </c>
       <c r="U112">
-        <v>242346</v>
+        <v>234443</v>
+      </c>
+      <c r="V112">
+        <v>241515</v>
       </c>
       <c r="AA112">
         <v>8</v>
@@ -4101,7 +4239,10 @@
         <v>7.3049603174603099</v>
       </c>
       <c r="AD112">
-        <v>7.06111111111111</v>
+        <v>7.1073412698412701</v>
+      </c>
+      <c r="AE112">
+        <v>7.1746031746031704</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -4137,7 +4278,10 @@
         <v>177275</v>
       </c>
       <c r="U113">
-        <v>144547</v>
+        <v>134278</v>
+      </c>
+      <c r="V113">
+        <v>147570</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -4173,7 +4317,10 @@
         <v>101506</v>
       </c>
       <c r="U114">
-        <v>66216</v>
+        <v>58147</v>
+      </c>
+      <c r="V114">
+        <v>69685</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -4209,7 +4356,10 @@
         <v>46183</v>
       </c>
       <c r="U115">
-        <v>23142</v>
+        <v>18805</v>
+      </c>
+      <c r="V115">
+        <v>24967</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -4245,7 +4395,10 @@
         <v>16814</v>
       </c>
       <c r="U116">
-        <v>6192</v>
+        <v>3996</v>
+      </c>
+      <c r="V116">
+        <v>6189</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -4281,7 +4434,10 @@
         <v>4732</v>
       </c>
       <c r="U117">
-        <v>1269</v>
+        <v>591</v>
+      </c>
+      <c r="V117">
+        <v>970</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -4317,7 +4473,10 @@
         <v>1004</v>
       </c>
       <c r="U118">
-        <v>116</v>
+        <v>18</v>
+      </c>
+      <c r="V118">
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -4351,9 +4510,6 @@
       </c>
       <c r="T119">
         <v>119</v>
-      </c>
-      <c r="U119">
-        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -4431,7 +4587,10 @@
         <v>7.0776512090691099</v>
       </c>
       <c r="U122">
-        <v>6.7285377487724798</v>
+        <v>6.6236178921281299</v>
+      </c>
+      <c r="V122">
+        <v>6.7322596687727003</v>
       </c>
     </row>
     <row r="123" spans="1:30">
